--- a/smaRussel.xlsx
+++ b/smaRussel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,10 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>R/R</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
@@ -455,14 +450,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CATO</t>
+        <v>1.534572849830452</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>THC</t>
         </is>
       </c>
     </row>
@@ -471,14 +463,492 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1.662004245881954</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OVV</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.633571715805874</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CHK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.895144675094705</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>KBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CLDX</t>
+      <c r="B6" t="n">
+        <v>1.648943718753082</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.529121714645936</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.896164489120849</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.725913943289943</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SWX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.782258699111988</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>HWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.517544651641653</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EXLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.716289477359278</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.41465253490375</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MUSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.859945444326735</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SFBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.63534159249453</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.731906734298147</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TRTN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.545724038481066</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TNET</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.72040485130832</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MIME</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.673102146389694</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.541192928971275</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CWST</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.881780177401676</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GATX</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.611890606256884</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.997862876602465</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MATX</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.567214841792621</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>APLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.506849730189582</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MTDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.760749330648319</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.611301728410954</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>WERN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.836380549135088</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CARG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.853736722330885</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RMBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.540209079692729</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CNX</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.538644664302725</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>KW</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.535962164913192</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FLR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.537421604664847</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CWEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.336777959950656</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.593359237658154</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>OTTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.942827774217842</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>HUBG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.633363360235825</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>TOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.656061143934812</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TWNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.858746816576416</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.655749053638127</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>TRMK</t>
         </is>
       </c>
     </row>
